--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T12:58:39+10:00</t>
+    <t>2024-05-15T15:51:17+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:51:17+10:00</t>
+    <t>2024-05-16T11:47:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,6 +475,13 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -486,6 +493,248 @@
   </si>
   <si>
     <t>Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII</t>
+  </si>
+  <si>
+    <t>AUHPII</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.system</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -620,9 +869,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -714,22 +960,6 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
@@ -737,16 +967,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.extension:ahpraProfession-details</t>
@@ -808,10 +1028,6 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -827,10 +1043,6 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -849,10 +1061,6 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that regulates and issues the qualification</t>
   </si>
   <si>
@@ -875,9 +1083,6 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/common-languages-australia-2</t>
@@ -1199,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1227,16 +1432,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="73.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2414,7 +2619,7 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
@@ -2470,16 +2675,14 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>142</v>
@@ -2491,19 +2694,19 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -2511,18 +2714,20 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
@@ -2534,29 +2739,25 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2600,39 +2801,39 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2643,7 +2844,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2652,23 +2853,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2722,22 +2919,22 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>74</v>
@@ -2745,14 +2942,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2768,23 +2965,21 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2820,19 +3015,19 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2844,16 +3039,16 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2861,10 +3056,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2875,31 +3070,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2924,13 +3119,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2948,28 +3143,28 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -2977,10 +3172,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3003,17 +3198,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3038,13 +3235,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3062,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3077,13 +3274,13 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3091,10 +3288,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3117,17 +3314,19 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3137,10 +3336,10 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3176,7 +3375,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3191,13 +3390,13 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3205,10 +3404,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3219,30 +3418,30 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3254,7 +3453,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3290,13 +3489,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3305,13 +3504,13 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3319,10 +3518,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3333,7 +3532,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3342,16 +3541,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3402,28 +3601,28 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3431,10 +3630,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3454,18 +3653,20 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3514,7 +3715,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3526,16 +3727,16 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3543,10 +3744,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3557,7 +3758,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3566,23 +3767,29 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3614,53 +3821,53 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3669,7 +3876,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3678,19 +3885,23 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3738,7 +3949,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3747,19 +3958,19 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -3767,14 +3978,12 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3783,7 +3992,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3792,19 +4001,23 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3852,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3861,19 +4074,19 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -3881,14 +4094,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3901,25 +4114,25 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3968,7 +4181,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3977,19 +4190,19 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -3997,10 +4210,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4011,7 +4224,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4020,20 +4233,20 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4058,13 +4271,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4082,28 +4295,28 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4111,10 +4324,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4122,7 +4335,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -4134,19 +4347,21 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4170,11 +4385,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4192,10 +4409,10 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>85</v>
@@ -4207,13 +4424,13 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4221,10 +4438,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4235,7 +4452,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4247,17 +4464,17 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4306,13 +4523,13 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
@@ -4324,10 +4541,10 @@
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4335,10 +4552,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4349,7 +4566,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4361,13 +4578,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4418,28 +4635,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4447,10 +4664,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4461,7 +4678,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4473,20 +4690,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4510,11 +4723,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4532,35 +4747,1053 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN29">
+  <autoFilter ref="A1:AN38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4570,7 +5803,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI28">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -57,19 +54,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T12:15:26+10:00</t>
+    <t>2024-05-20T17:01:27+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Northern Australia Regional Digital Health Collaborative</t>
+    <t>D Foulkes - Northern Australia Regional Digital Health Collaborative</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Northern Australia Regional Digital Health Collaborative (https://nardhc.org)</t>
+    <t>D Foulkes - Northern Australia Regional Digital Health Collaborative (https://nardhc.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
   <si>
     <t>Description</t>
@@ -462,30 +465,27 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-hpii|http://hl7.org.au/fhir/StructureDefinition/au-pbsprescribernumber|http://hl7.org.au/fhir/StructureDefinition/au-careagencyemployeeidentifier|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpii|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>Healthcare Provider Identifier – Individual (HPI-I)</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Identifier for Individuals (HPI-I) assigned under the HI Service to healthcare providers involved in providing patient care.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-hpii-0:HPI-I shall be 16 digits {value.matches('^([0-9]{16})$')}inv-hpii-1:HPI-I prefix shall be 800361 {value.startsWith('800361')}inv-hpii-2:HPI-I shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
+  </si>
+  <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
@@ -493,248 +493,6 @@
   </si>
   <si>
     <t>Identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII</t>
-  </si>
-  <si>
-    <t>AUHPII</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.use</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.type</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.system</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.period</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:AUHPII.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -869,6 +627,9 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -960,6 +721,22 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
@@ -967,6 +744,16 @@
   </si>
   <si>
     <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.extension:ahpraProfession-details</t>
@@ -1022,12 +809,22 @@
 </t>
   </si>
   <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
     <t>Often, specific identities are assigned for the qualification.</t>
   </si>
   <si>
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -1043,6 +840,10 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -1061,6 +862,10 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that regulates and issues the qualification</t>
   </si>
   <si>
@@ -1083,6 +888,9 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/common-languages-australia-2</t>
@@ -1223,27 +1031,12 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1341,21 +1134,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1395,6 +1188,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1423,7 +1224,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1432,16 +1233,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="73.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1456,2204 +1257,2210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>224</v>
@@ -3664,2153 +3471,1101 @@
       <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y38" s="2"/>
-      <c r="Z38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN38">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T17:01:27+10:00</t>
+    <t>2024-05-21T11:55:01+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/au-practitioner</t>
+    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -256,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>A practitioner in an Australian healthcare context</t>
+    <t>A person with a formal responsibility in the provisioning of services</t>
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
@@ -465,36 +468,59 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpii|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-hpii|http://hl7.org.au/fhir/StructureDefinition/au-pbsprescribernumber|http://hl7.org.au/fhir/StructureDefinition/au-careagencyemployeeidentifier|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
 </t>
   </si>
   <si>
-    <t>Healthcare Provider Identifier – Individual (HPI-I)</t>
-  </si>
-  <si>
-    <t>Healthcare Provider Identifier for Individuals (HPI-I) assigned under the HI Service to healthcare providers involved in providing patient care.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person in this role.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:hpii</t>
+  </si>
+  <si>
+    <t>hpii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpii}
+</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Identifier – Individual (HPI-I)</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Identifier for Individuals (HPI-I) assigned under the HI Service to healthcare providers involved in providing patient care.</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 inv-hpii-0:HPI-I shall be 16 digits {value.matches('^([0-9]{16})$')}inv-hpii-1:HPI-I prefix shall be 800361 {value.startsWith('800361')}inv-hpii-2:HPI-I shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Practitioner.active</t>
   </si>
   <si>
@@ -515,6 +541,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -550,6 +579,14 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
+    <t xml:space="preserve">inv-au-core-prac-01
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+au-core-prac-01:At least text or family name shall be present {text.exists() or family.exists()}</t>
+  </si>
+  <si>
     <t>XCN Components</t>
   </si>
   <si>
@@ -597,7 +634,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+    <t>Address(es) of the practitioner that are not role specific (typically home address). Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
   <si>
     <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
@@ -750,9 +787,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -807,9 +841,6 @@
   <si>
     <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
 </t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -1031,6 +1062,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1205,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1224,7 +1270,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1377,7 +1423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1489,7 +1535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1603,7 +1649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1715,7 +1761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -1829,7 +1875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -1943,7 +1989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2057,7 +2103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2171,7 +2217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2285,7 +2331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2401,7 +2447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2414,13 +2460,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -2476,16 +2522,14 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -2497,32 +2541,34 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2534,111 +2580,107 @@
         <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q12" t="s" s="2">
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2649,7 +2691,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2661,27 +2703,29 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O13" t="s" s="2">
+      <c r="R13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2722,13 +2766,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -2737,24 +2781,24 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2762,13 +2806,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -2777,19 +2821,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2838,7 +2882,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2847,30 +2891,30 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2884,28 +2928,28 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2954,7 +2998,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2963,30 +3007,30 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2997,29 +3041,31 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3044,13 +3090,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3068,16 +3114,16 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>99</v>
@@ -3095,7 +3141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>200</v>
       </c>
@@ -3123,17 +3169,17 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3158,13 +3204,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3197,24 +3243,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3225,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3234,20 +3280,20 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3296,13 +3342,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3311,24 +3357,24 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3351,16 +3397,18 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3408,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3420,27 +3468,27 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3451,10 +3499,10 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -3463,13 +3511,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3520,39 +3568,39 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3563,7 +3611,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3575,13 +3623,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3620,35 +3668,37 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3657,16 +3707,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3675,7 +3723,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3687,13 +3735,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3732,19 +3780,17 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3753,7 +3799,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>138</v>
@@ -3771,15 +3817,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="C23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -3801,13 +3847,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3858,7 +3904,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3867,7 +3913,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -3885,48 +3931,46 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3974,7 +4018,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3983,7 +4027,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>138</v>
@@ -3992,7 +4036,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4001,16 +4045,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4023,23 +4067,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4088,7 +4134,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4097,30 +4143,30 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4128,13 +4174,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4143,16 +4189,18 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4176,61 +4224,63 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4238,13 +4288,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4253,18 +4303,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4288,13 +4336,11 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4312,10 +4358,10 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4330,21 +4376,21 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4358,7 +4404,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4367,16 +4413,18 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4424,7 +4472,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4442,21 +4490,21 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4467,10 +4515,10 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -4479,20 +4527,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4516,11 +4560,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4538,13 +4584,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4553,19 +4599,151 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="B30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN30">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$33</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pra-2:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1')}inv-pra-3:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1')}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -425,33 +425,103 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:genderIdentity</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-genderIdentity}
+</t>
+  </si>
+  <si>
+    <t>Gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply</t>
+  </si>
+  <si>
+    <t>An individual's personal sense of being a man, woman, boy, girl, nonbinary, or something else.</t>
+  </si>
+  <si>
+    <t>Individual Gender identity [Gender Identity Response](https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1) ([Extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). See [Australian Bureau of Statics (ABS) Standard for Sex, Gender, Variations of Sex Characteristics and Sexual Orientation Variables, 2020](https://www.abs.gov.au/statistics/standards/standard-sex-gender-variations-sex-characteristics-and-sexual-orientation-variables/latest-release#gender) for further materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-pra-3
+</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:individualPronouns</t>
+  </si>
+  <si>
+    <t>individualPronouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-pronouns}
+</t>
+  </si>
+  <si>
+    <t>Pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply</t>
+  </si>
+  <si>
+    <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
+  </si>
+  <si>
+    <t>Individual Pronouns [Australian Pronouns](https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1) ([Extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-pra-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:recordedSexOrGender</t>
+  </si>
+  <si>
+    <t>recordedSexOrGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-recordedSexOrGender}
+</t>
+  </si>
+  <si>
+    <t>A recorded sex or gender property for the individual</t>
+  </si>
+  <si>
+    <t>A sex or gender property for the individual from a document or other record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +529,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -485,13 +558,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
@@ -541,9 +607,6 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -579,7 +642,7 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-au-core-prac-01
+    <t xml:space="preserve">au-core-prac-01
 </t>
   </si>
   <si>
@@ -634,13 +697,17 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
   </si>
   <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address). Work addresses are not typically entered in this property as they are usually role dependent.</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
     <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
+  </si>
+  <si>
+    <t>ele-1
+inv-pra-1</t>
   </si>
   <si>
     <t>XAD</t>
@@ -777,16 +844,6 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -803,6 +860,10 @@
     <t>Ahpra Profession Details</t>
   </si>
   <si>
+    <t>ele-1
+inv-pra-0</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.extension:ahpraRegistration-details</t>
   </si>
   <si>
@@ -819,6 +880,10 @@
     <t>Details on the Ahpra registration of profession.</t>
   </si>
   <si>
+    <t>ele-1
+inv-pat-1</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.modifierExtension</t>
   </si>
   <si>
@@ -863,6 +928,10 @@
   </si>
   <si>
     <t>http://terminology.hl7.org.au/ValueSet/v2-0360-extended</t>
+  </si>
+  <si>
+    <t>inv-pra-0
+inv-pat-1</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1251,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2226,7 +2295,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2245,17 +2314,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2292,16 +2359,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2322,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2336,11 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2353,26 +2420,24 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2420,7 +2485,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2429,7 +2494,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2438,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2449,24 +2514,26 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -2475,18 +2542,18 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2522,17 +2589,19 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2541,19 +2610,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
@@ -2561,13 +2630,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2577,10 +2646,10 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -2589,18 +2658,16 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2648,7 +2715,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2657,19 +2724,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -2677,128 +2744,126 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2809,7 +2874,7 @@
         <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>88</v>
@@ -2818,22 +2883,20 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2870,19 +2933,17 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2891,19 +2952,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -2911,12 +2972,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
@@ -2925,7 +2988,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>88</v>
@@ -2934,22 +2997,20 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2998,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3007,19 +3068,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3027,10 +3088,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3041,36 +3102,38 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="R16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3114,39 +3177,39 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3154,13 +3217,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3169,17 +3232,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3204,13 +3269,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3228,28 +3293,28 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3257,10 +3322,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3271,10 +3336,10 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3283,17 +3348,19 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3342,13 +3409,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3357,13 +3424,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3371,10 +3438,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3388,7 +3455,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -3397,17 +3464,19 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3456,7 +3525,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3465,19 +3534,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3485,10 +3554,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3499,28 +3568,30 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3544,13 +3615,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3568,28 +3639,28 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3597,10 +3668,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3620,19 +3691,21 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3680,7 +3753,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3692,16 +3765,16 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3709,10 +3782,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3735,7 +3808,7 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>240</v>
@@ -3744,7 +3817,9 @@
         <v>241</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3780,17 +3855,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3802,16 +3879,16 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3819,14 +3896,12 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C23" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3835,10 +3910,10 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -3853,7 +3928,7 @@
         <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3904,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3913,19 +3988,19 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -3933,14 +4008,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3961,13 +4034,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4018,25 +4091,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4047,14 +4120,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4067,26 +4140,22 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4122,19 +4191,17 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4152,7 +4219,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4163,12 +4230,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4177,10 +4246,10 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4189,18 +4258,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4248,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4257,19 +4324,19 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4277,24 +4344,26 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4303,13 +4372,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4336,11 +4405,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4358,28 +4429,28 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4387,43 +4458,45 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4472,28 +4545,28 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4501,10 +4574,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4515,7 +4588,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>88</v>
@@ -4527,16 +4600,18 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4584,28 +4659,28 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4613,10 +4688,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4624,10 +4699,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>88</v>
@@ -4639,20 +4714,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O30" t="s" s="2">
         <v>284</v>
       </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4676,57 +4747,397 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="B31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="L31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN30">
+  <autoFilter ref="A1:AN33">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4736,7 +5147,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$42</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pra-2:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1')}inv-pra-3:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pra-2:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').all(extension('value').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1'))}inv-pra-3:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').all(extension('value').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1'))}inv-pra-4:Recorded sex or gender type shall be a member of the AU Recorded Sex or Gender Type value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('type').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('type').value.memberOf('http://terminology.hl7.org.au/ValueSet/rsg-type'))}inv-pra-5:Recorded sex or gender source document type shall be a member of the AU Recorded Sex or Gender (RSG) Source Document Type value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('sourceDocument').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('sourceDocument').value.memberOf('http://terminology.hl7.org.au/ValueSet/rsg-document-type'))}inv-pra-6:Recorded sex or gender jurisdiction shall be a member of the Jurisdiction ValueSet - AU Extended value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('jurisdiction').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('jurisdiction').value.memberOf('http://terminology.hl7.org.au/ValueSet/jurisdiction-extended'))}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -505,14 +505,17 @@
 </t>
   </si>
   <si>
-    <t>A recorded sex or gender property for the individual</t>
+    <t>Recorded sex or gender type shall be a member of the AU Recorded Sex or Gender Type value set if any codes within that value set can apply. Recorded sex or gender source document type shall be a member of the AU Recorded Sex or Gender (RSG) Source Document Type value set if any codes within that value set can apply. Recorded sex or gender jurisdiction shall be a member of the Jurisdiction ValueSet - AU Extended value set if any codes within that value set can apply</t>
   </si>
   <si>
     <t>A sex or gender property for the individual from a document or other record</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Person Recorded Sex Or Gender type [AU Recorded Sex or Gender Type](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-rsg-type.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). Person Recorded Sex Or Gender source document [AU Recorded Sex or Gender (RSG) Source Document Type](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-rsg-source-document-type.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). Person Recorded Sex Or Gender jurisdiction [Jurisdiction ValueSet - AU Extended](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-au-jurisdiction-extended.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)).</t>
+  </si>
+  <si>
+    <t>inv-pra-4
+inv-pra-5inv-pra-6</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -555,6 +558,10 @@
   </si>
   <si>
     <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
@@ -642,21 +649,230 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t xml:space="preserve">au-core-prac-01
+    <t>XCN Components</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
+  </si>
+  <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-au-core-prac-01:At least text or family name shall be present {text.exists() or family.exists()}</t>
-  </si>
-  <si>
-    <t>XCN Components</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -731,9 +947,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -825,26 +1038,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.extension:ahpraProfession-details</t>
@@ -938,10 +1132,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Period during which the qualification is valid</t>
@@ -1320,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1357,7 +1547,7 @@
     <col min="26" max="26" width="73.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2666,7 +2856,9 @@
       <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2724,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>138</v>
@@ -2744,14 +2936,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2773,16 +2965,16 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2831,7 +3023,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2860,10 +3052,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2886,17 +3078,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2933,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
@@ -2943,7 +3135,7 @@
         <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2952,19 +3144,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -2972,13 +3164,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3000,17 +3192,17 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3059,7 +3251,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3068,19 +3260,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3088,10 +3280,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3114,70 +3306,70 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3195,21 +3387,21 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3232,19 +3424,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3293,7 +3485,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3302,10 +3494,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>198</v>
@@ -3336,16 +3528,16 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>202</v>
@@ -3356,12 +3548,8 @@
       <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3409,28 +3597,28 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3438,14 +3626,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3455,7 +3643,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -3464,20 +3652,18 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3513,19 +3699,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3534,19 +3720,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3554,10 +3740,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3574,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
@@ -3583,14 +3769,16 @@
         <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3615,13 +3803,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3654,13 +3842,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3668,10 +3856,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3694,17 +3882,19 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3753,7 +3943,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3768,13 +3958,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3782,44 +3972,44 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3867,13 +4057,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3882,13 +4072,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3896,14 +4086,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3919,18 +4109,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3979,7 +4171,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3991,16 +4183,16 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4008,10 +4200,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4022,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4031,16 +4223,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4091,28 +4283,28 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4120,10 +4312,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4143,16 +4335,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4191,14 +4383,16 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>260</v>
@@ -4213,13 +4407,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4230,14 +4424,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4255,19 +4447,21 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4315,28 +4509,28 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4344,14 +4538,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4360,7 +4552,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4369,19 +4561,23 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4429,7 +4625,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4438,19 +4634,19 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4458,14 +4654,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4478,25 +4674,25 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4545,7 +4741,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4554,19 +4750,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4574,10 +4770,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4588,29 +4784,29 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4635,13 +4831,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4659,28 +4855,28 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4688,10 +4884,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4699,31 +4895,33 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4747,11 +4945,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4769,28 +4969,28 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -4798,10 +4998,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4812,10 +5012,10 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
@@ -4824,17 +5024,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4883,13 +5083,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4901,10 +5101,10 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -4912,10 +5112,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4926,10 +5126,10 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -4938,13 +5138,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4995,28 +5195,28 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5024,10 +5224,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5038,10 +5238,10 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>76</v>
@@ -5050,20 +5250,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5087,11 +5283,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5109,35 +5307,1053 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AK38" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN33">
+  <autoFilter ref="A1:AN42">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5147,7 +6363,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFPractitioner.xlsx
+++ b/StructureDefinition-ARFPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
